--- a/Results/SERVICE.xlsx
+++ b/Results/SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="428">
   <si>
     <t>id</t>
   </si>
@@ -166,9 +166,6 @@
     <t>1349391:1</t>
   </si>
   <si>
-    <t>1357554:3</t>
-  </si>
-  <si>
     <t>1367358:3</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>1671113:2</t>
   </si>
   <si>
-    <t>1671113:4</t>
-  </si>
-  <si>
     <t>1700205:2</t>
   </si>
   <si>
@@ -529,9 +523,6 @@
     <t>sometimes i get bad food and bad service, sometimes i get good good and bad service.</t>
   </si>
   <si>
-    <t>service was slow, but the people were friendly.</t>
-  </si>
-  <si>
     <t>ambience is delightful, service impeccable.</t>
   </si>
   <si>
@@ -658,9 +649,6 @@
     <t>i have tried to make reservations, but both times, the hostess didn't have my name.</t>
   </si>
   <si>
-    <t>the staff has been nice, but they seemed really stressed and the unisex bathroom needs to be cleaned more often.</t>
-  </si>
-  <si>
     <t>considering we were the last patrons there and it was after the closing time, the waitstaff did not rush us at all and made us feel comfortable and relaxed.</t>
   </si>
   <si>
@@ -766,7 +754,7 @@
     <t>sensual</t>
   </si>
   <si>
-    <t>perfection</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>haze</t>
@@ -793,9 +781,6 @@
     <t>japanese</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>rude</t>
   </si>
   <si>
@@ -862,33 +847,24 @@
     <t>enjoying</t>
   </si>
   <si>
+    <t>impeccable</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>proper</t>
+  </si>
+  <si>
+    <t>friendliest</t>
+  </si>
+  <si>
     <t>slow</t>
   </si>
   <si>
-    <t>delightful</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>excellentthe</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>proper</t>
-  </si>
-  <si>
-    <t>impeccable</t>
-  </si>
-  <si>
-    <t>breathtaking</t>
-  </si>
-  <si>
-    <t>friendliest</t>
-  </si>
-  <si>
     <t>quick</t>
   </si>
   <si>
@@ -901,9 +877,6 @@
     <t>get</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>dissappointed</t>
   </si>
   <si>
@@ -1105,9 +1078,6 @@
     <t>['sometimes', 'get', 'bad', 'food', 'bad', 'service', 'sometimes', 'get', 'good', 'good', 'bad', 'service']</t>
   </si>
   <si>
-    <t>['service', 'slow', 'people', 'friendly']</t>
-  </si>
-  <si>
     <t>['ambience', 'delightful', 'service', 'impeccable']</t>
   </si>
   <si>
@@ -1232,9 +1202,6 @@
   </si>
   <si>
     <t>['tried', 'make', 'reservation', 'time', 'hostess', 'name']</t>
-  </si>
-  <si>
-    <t>['staff', 'nice', 'seemed', 'really', 'stressed', 'unisex', 'bathroom', 'need', 'cleaned', 'often']</t>
   </si>
   <si>
     <t>['considering', 'last', 'patron', 'closing', 'time', 'waitstaff', 'rush', 'u', 'made', 'u', 'feel', 'comfortable', 'relaxed']</t>
@@ -1688,7 +1655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1719,16 +1686,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1739,16 +1706,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1759,16 +1726,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1779,16 +1746,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1799,16 +1766,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1819,16 +1786,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1839,16 +1806,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1859,16 +1826,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" t="s">
         <v>316</v>
-      </c>
-      <c r="F9" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1879,16 +1846,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" t="s">
         <v>317</v>
-      </c>
-      <c r="F10" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1899,16 +1866,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E11" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F11" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1919,16 +1886,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F12" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1939,16 +1906,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F13" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1959,16 +1926,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E14" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F14" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1979,16 +1946,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F15" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1999,16 +1966,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E16" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F16" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2019,16 +1986,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E17" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F17" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2039,16 +2006,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E18" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F18" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2059,16 +2026,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F19" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2079,16 +2046,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E20" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F20" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2099,16 +2066,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E21" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F21" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2119,16 +2086,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E22" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F22" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2139,16 +2106,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F23" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2159,16 +2126,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E24" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F24" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2179,16 +2146,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E25" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F25" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2199,16 +2166,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E26" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F26" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2219,16 +2186,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E27" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F27" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2239,16 +2206,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E28" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F28" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2259,16 +2226,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E29" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F29" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2279,16 +2246,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E30" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F30" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2299,16 +2266,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E31" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F31" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2319,16 +2286,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E32" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F32" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2339,16 +2306,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E33" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F33" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2359,16 +2326,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E34" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F34" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2379,16 +2346,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F35" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2399,16 +2366,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E36" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F36" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2419,16 +2386,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D37" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F37" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2439,16 +2406,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E38" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F38" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2459,16 +2426,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E39" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2479,16 +2446,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E40" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F40" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2499,16 +2466,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F41" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2519,16 +2486,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E42" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F42" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2539,16 +2506,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E43" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F43" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2559,16 +2526,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E44" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F44" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2579,16 +2546,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E45" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F45" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2599,16 +2566,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E46" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2619,16 +2586,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E47" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2639,16 +2606,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E48" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F48" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2659,16 +2626,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="E49" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F49" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2679,16 +2646,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E50" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F50" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2699,16 +2666,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E51" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F51" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2719,16 +2686,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E52" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F52" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2739,16 +2706,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D53" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="E53" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F53" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2759,16 +2726,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D54" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F54" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2779,16 +2746,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E55" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F55" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2799,16 +2766,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F56" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2819,16 +2786,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="E57" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F57" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2839,16 +2806,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D58" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E58" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F58" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2859,16 +2826,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="E59" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F59" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2879,16 +2846,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F60" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2899,16 +2866,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E61" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F61" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2919,16 +2886,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E62" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F62" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2939,16 +2906,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F63" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2959,16 +2926,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="E64" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F64" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2979,16 +2946,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E65" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F65" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2999,16 +2966,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="E66" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F66" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3019,16 +2986,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E67" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F67" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3039,16 +3006,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="E68" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F68" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3059,16 +3026,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="E69" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F69" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3079,16 +3046,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D70" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="E70" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F70" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3099,16 +3066,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D71" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E71" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F71" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3119,16 +3086,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="E72" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F72" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3139,16 +3106,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D73" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E73" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F73" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3159,16 +3126,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D74" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F74" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3179,16 +3146,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E75" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F75" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3199,16 +3166,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D76" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="E76" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F76" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3219,16 +3186,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E77" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F77" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3239,16 +3206,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D78" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E78" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F78" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3259,16 +3226,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D79" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="E79" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F79" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3279,16 +3246,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E80" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F80" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3299,16 +3266,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="E81" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F81" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3319,16 +3286,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D82" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="E82" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F82" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3339,16 +3306,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="E83" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F83" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3359,16 +3326,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D84" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="E84" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F84" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3379,16 +3346,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D85" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="E85" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F85" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3399,16 +3366,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D86" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F86" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3419,16 +3386,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D87" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E87" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F87" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3439,16 +3406,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D88" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F88" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3459,16 +3426,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D89" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E89" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F89" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3479,16 +3446,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D90" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E90" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F90" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3499,16 +3466,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D91" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="E91" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F91" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3519,16 +3486,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D92" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E92" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F92" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3539,16 +3506,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D93" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="E93" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F93" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3559,16 +3526,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D94" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="E94" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F94" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3579,16 +3546,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D95" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="E95" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F95" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3599,16 +3566,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D96" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="E96" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F96" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3619,16 +3586,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D97" t="s">
         <v>297</v>
       </c>
       <c r="E97" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F97" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3639,16 +3606,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D98" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="E98" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F98" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3659,16 +3626,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D99" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E99" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F99" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3679,16 +3646,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D100" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="E100" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F100" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3699,16 +3666,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D101" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="E101" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F101" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3719,16 +3686,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D102" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="E102" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F102" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3739,16 +3706,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D103" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="E103" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F103" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3759,16 +3726,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D104" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E104" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F104" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3779,16 +3746,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D105" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E105" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F105" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3799,16 +3766,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D106" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="E106" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F106" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3819,16 +3786,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D107" t="s">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="E107" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F107" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3839,16 +3806,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D108" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E108" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F108" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3859,16 +3826,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D109" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="E109" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F109" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3879,16 +3846,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="E110" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F110" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3899,16 +3866,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D111" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="E111" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F111" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3919,16 +3886,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D112" t="s">
-        <v>313</v>
+        <v>249</v>
       </c>
       <c r="E112" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F112" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3939,16 +3906,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D113" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="E113" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F113" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3959,16 +3926,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D114" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E114" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F114" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3979,16 +3946,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D115" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="E115" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F115" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3999,16 +3966,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D116" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E116" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F116" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4019,16 +3986,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D117" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E117" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F117" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4039,16 +4006,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D118" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E118" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F118" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4059,16 +4026,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D119" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="E119" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F119" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4079,56 +4046,16 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D120" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="E120" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F120" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>124</v>
-      </c>
-      <c r="C121" t="s">
-        <v>245</v>
-      </c>
-      <c r="D121" t="s">
-        <v>274</v>
-      </c>
-      <c r="E121" t="s">
-        <v>317</v>
-      </c>
-      <c r="F121" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>125</v>
-      </c>
-      <c r="C122" t="s">
-        <v>246</v>
-      </c>
-      <c r="D122" t="s">
-        <v>311</v>
-      </c>
-      <c r="E122" t="s">
-        <v>316</v>
-      </c>
-      <c r="F122" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/Results/SERVICE.xlsx
+++ b/Results/SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="436">
   <si>
     <t>id</t>
   </si>
@@ -55,12 +55,18 @@
     <t>1058221:3</t>
   </si>
   <si>
+    <t>1058221:4</t>
+  </si>
+  <si>
     <t>1062641:3</t>
   </si>
   <si>
     <t>1074868:4</t>
   </si>
   <si>
+    <t>1086478:0</t>
+  </si>
+  <si>
     <t>1086478:2</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>1138996:5</t>
   </si>
   <si>
+    <t>1147211:2</t>
+  </si>
+  <si>
     <t>1147211:3</t>
   </si>
   <si>
@@ -115,9 +124,6 @@
     <t>1227999:1</t>
   </si>
   <si>
-    <t>1230993:2</t>
-  </si>
-  <si>
     <t>1232468:3</t>
   </si>
   <si>
@@ -160,9 +166,6 @@
     <t>1347423:1</t>
   </si>
   <si>
-    <t>1347423:2</t>
-  </si>
-  <si>
     <t>1349391:1</t>
   </si>
   <si>
@@ -268,16 +271,16 @@
     <t>1632929:5</t>
   </si>
   <si>
+    <t>1649025:2</t>
+  </si>
+  <si>
     <t>1655521:3</t>
   </si>
   <si>
     <t>1660047:1</t>
   </si>
   <si>
-    <t>1660047:3</t>
-  </si>
-  <si>
-    <t>1660047:4</t>
+    <t>1660047:2</t>
   </si>
   <si>
     <t>1660047:5</t>
@@ -289,9 +292,6 @@
     <t>1662726:1</t>
   </si>
   <si>
-    <t>1671113:2</t>
-  </si>
-  <si>
     <t>1700205:2</t>
   </si>
   <si>
@@ -307,6 +307,9 @@
     <t>1727363:2</t>
   </si>
   <si>
+    <t>1728733:1</t>
+  </si>
+  <si>
     <t>1748839:1</t>
   </si>
   <si>
@@ -340,6 +343,9 @@
     <t>493514:0</t>
   </si>
   <si>
+    <t>498657:4</t>
+  </si>
+  <si>
     <t>507844:0</t>
   </si>
   <si>
@@ -412,12 +418,18 @@
     <t>however, it's the service that leaves a bad taste in my mouth.</t>
   </si>
   <si>
+    <t>i happen to have a policy that goes along with a little bit of self-respect, which includes not letting a waiter intimidate me, i.e. make me feel bad asking for trivialities like water, or the check.</t>
+  </si>
+  <si>
     <t>service is top notch.</t>
   </si>
   <si>
     <t>the food was well prepared and the service impecable.</t>
   </si>
   <si>
+    <t>the food here is rather good, but only if you like to wait for it.</t>
+  </si>
+  <si>
     <t>the service varys from day to day- sometimes they're very nice, and sometimes not.</t>
   </si>
   <si>
@@ -448,6 +460,9 @@
     <t>the people that work there are always so friendly you forget you are in new york sometimes.</t>
   </si>
   <si>
+    <t>the waitress was very patient with us and the food is phenomenal!</t>
+  </si>
+  <si>
     <t>service was prompt, friendly and great.</t>
   </si>
   <si>
@@ -472,9 +487,6 @@
     <t>the waitress moved our table practically into the bathroom and when we asked to cancel our dinner orders because we did not want to eat sitting on the toilet, we were told no...</t>
   </si>
   <si>
-    <t>our server was very helpful and friendly.</t>
-  </si>
-  <si>
     <t>service was prompt and courteous.</t>
   </si>
   <si>
@@ -517,9 +529,6 @@
     <t>the staff was accomodating, the food was absolutely delicious and the place is lovely.</t>
   </si>
   <si>
-    <t>we even had a visit from the manager who wanted to make sure we were enjoying ourselves.</t>
-  </si>
-  <si>
     <t>sometimes i get bad food and bad service, sometimes i get good good and bad service.</t>
   </si>
   <si>
@@ -625,16 +634,16 @@
     <t>truly the mark of an attentive waiter.</t>
   </si>
   <si>
+    <t>the food is so cheap and the waiters are nice.</t>
+  </si>
+  <si>
     <t>the wait staff is very freindly, they make it feel like you're eating in a freindly little european town.</t>
   </si>
   <si>
     <t>the service was terrible, we had to wait for everything and ask several of different people for the same thing before we were allowed to be served.</t>
   </si>
   <si>
-    <t>after dinner the manager grabbed my boyfriend, asked him: where are you from...maybe you dont know how things work in america...and in the end stormed away almost teareyed yelling that tips are the only thing they survive on.</t>
-  </si>
-  <si>
-    <t>we did tip, i guess the model/waitress just wanted more and complained to the manager.</t>
+    <t>the waitress, seems to be more concerned of looking good than actually waitressing.</t>
   </si>
   <si>
     <t>the whole set up is truly unprofessional and i wish cafe noir would get some good staff, because despite the current one this is a great place.</t>
@@ -646,9 +655,6 @@
     <t>a gentleman, maybe the manager, came to our table, and without so much as a smile or greeting asked for our order.</t>
   </si>
   <si>
-    <t>i have tried to make reservations, but both times, the hostess didn't have my name.</t>
-  </si>
-  <si>
     <t>considering we were the last patrons there and it was after the closing time, the waitstaff did not rush us at all and made us feel comfortable and relaxed.</t>
   </si>
   <si>
@@ -664,6 +670,9 @@
     <t>an excellent service</t>
   </si>
   <si>
+    <t>we were greeted promptly by the waiter who was very nice and cordial.</t>
+  </si>
+  <si>
     <t>immediately after we paid, the waiter took the money and said, okay, you guys are outta here.</t>
   </si>
   <si>
@@ -697,6 +706,9 @@
     <t>i cannot imagine a friendlier staff working in a restaurant.</t>
   </si>
   <si>
+    <t>the wait here is long for dim sum, but if you don't like sharing tables or if the typical raucous dim sum atmosphere is not your gig, this is a sleek (for chinatown) alternative.</t>
+  </si>
+  <si>
     <t>this place would be so much better served by being run by a group that actually understands customer service.</t>
   </si>
   <si>
@@ -769,6 +781,9 @@
     <t>bad</t>
   </si>
   <si>
+    <t>intimidate</t>
+  </si>
+  <si>
     <t>top</t>
   </si>
   <si>
@@ -790,150 +805,153 @@
     <t>fast</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>incredibly</t>
+  </si>
+  <si>
+    <t>moved</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>nonsense</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>delicous</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>professional</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>noisy</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>impeccable</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>proper</t>
+  </si>
+  <si>
+    <t>friendliest</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>dissappointed</t>
+  </si>
+  <si>
+    <t>attentive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>concerned</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>promptly</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>pleasant</t>
+  </si>
+  <si>
+    <t>friendlier</t>
+  </si>
+  <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>drawbacks</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>prompt</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>incredibly</t>
-  </si>
-  <si>
-    <t>moved</t>
+    <t>disappointed</t>
   </si>
   <si>
     <t>helpful</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>nonsense</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>delicous</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>professional</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>noisy</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>enjoying</t>
-  </si>
-  <si>
-    <t>impeccable</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>proper</t>
-  </si>
-  <si>
-    <t>friendliest</t>
-  </si>
-  <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>exceptional</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>dissappointed</t>
-  </si>
-  <si>
-    <t>attentive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>complained</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>didnt</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>pleasant</t>
-  </si>
-  <si>
-    <t>friendlier</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>drawbacks</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -967,12 +985,18 @@
     <t>['however', 'service', 'leaf', 'bad', 'taste', 'mouth']</t>
   </si>
   <si>
+    <t>['happen', 'policy', 'go', 'along', 'little', 'bit', 'selfrespect', 'includes', 'letting', 'waiter', 'intimidate', 'ie', 'make', 'feel', 'bad', 'asking', 'triviality', 'like', 'water', 'check']</t>
+  </si>
+  <si>
     <t>['service', 'top', 'notch']</t>
   </si>
   <si>
     <t>['food', 'well', 'prepared', 'service', 'impecable']</t>
   </si>
   <si>
+    <t>['food', 'rather', 'good', 'like', 'wait']</t>
+  </si>
+  <si>
     <t>['service', 'varys', 'day', 'day', 'sometimes', 'theyre', 'nice', 'sometimes']</t>
   </si>
   <si>
@@ -1003,6 +1027,9 @@
     <t>['people', 'work', 'always', 'friendly', 'forget', 'new', 'york', 'sometimes']</t>
   </si>
   <si>
+    <t>['waitress', 'patient', 'u', 'food', 'phenomenal']</t>
+  </si>
+  <si>
     <t>['service', 'prompt', 'friendly', 'great']</t>
   </si>
   <si>
@@ -1027,9 +1054,6 @@
     <t>['waitress', 'moved', 'table', 'practically', 'bathroom', 'asked', 'cancel', 'dinner', 'order', 'want', 'eat', 'sitting', 'toilet', 'told']</t>
   </si>
   <si>
-    <t>['server', 'helpful', 'friendly']</t>
-  </si>
-  <si>
     <t>['service', 'prompt', 'courteous']</t>
   </si>
   <si>
@@ -1072,9 +1096,6 @@
     <t>['staff', 'accomodating', 'food', 'absolutely', 'delicious', 'place', 'lovely']</t>
   </si>
   <si>
-    <t>['even', 'visit', 'manager', 'wanted', 'make', 'sure', 'enjoying']</t>
-  </si>
-  <si>
     <t>['sometimes', 'get', 'bad', 'food', 'bad', 'service', 'sometimes', 'get', 'good', 'good', 'bad', 'service']</t>
   </si>
   <si>
@@ -1180,16 +1201,16 @@
     <t>['truly', 'mark', 'attentive', 'waiter']</t>
   </si>
   <si>
+    <t>['food', 'cheap', 'waiter', 'nice']</t>
+  </si>
+  <si>
     <t>['wait', 'staff', 'freindly', 'make', 'feel', 'like', 'eating', 'freindly', 'little', 'european', 'town']</t>
   </si>
   <si>
     <t>['service', 'terrible', 'wait', 'everything', 'ask', 'several', 'different', 'people', 'thing', 'allowed', 'served']</t>
   </si>
   <si>
-    <t>['dinner', 'manager', 'grabbed', 'boyfriend', 'asked', 'frommaybe', 'know', 'thing', 'work', 'americaand', 'end', 'stormed', 'away', 'almost', 'teareyed', 'yelling', 'tip', 'thing', 'survive']</t>
-  </si>
-  <si>
-    <t>['tip', 'guess', 'modelwaitress', 'wanted', 'complained', 'manager']</t>
+    <t>['waitress', 'seems', 'concerned', 'looking', 'good', 'actually', 'waitressing']</t>
   </si>
   <si>
     <t>['whole', 'set', 'truly', 'unprofessional', 'wish', 'cafe', 'noir', 'would', 'get', 'good', 'staff', 'despite', 'current', 'one', 'great', 'place']</t>
@@ -1201,9 +1222,6 @@
     <t>['gentleman', 'maybe', 'manager', 'came', 'table', 'without', 'much', 'smile', 'greeting', 'asked', 'order']</t>
   </si>
   <si>
-    <t>['tried', 'make', 'reservation', 'time', 'hostess', 'name']</t>
-  </si>
-  <si>
     <t>['considering', 'last', 'patron', 'closing', 'time', 'waitstaff', 'rush', 'u', 'made', 'u', 'feel', 'comfortable', 'relaxed']</t>
   </si>
   <si>
@@ -1219,6 +1237,9 @@
     <t>['excellent', 'service']</t>
   </si>
   <si>
+    <t>['greeted', 'promptly', 'waiter', 'nice', 'cordial']</t>
+  </si>
+  <si>
     <t>['immediately', 'paid', 'waiter', 'took', 'money', 'said', 'okay', 'guy', 'outta']</t>
   </si>
   <si>
@@ -1250,6 +1271,9 @@
   </si>
   <si>
     <t>['imagine', 'friendlier', 'staff', 'working', 'restaurant']</t>
+  </si>
+  <si>
+    <t>['wait', 'long', 'dim', 'sum', 'like', 'sharing', 'table', 'typical', 'raucous', 'dim', 'sum', 'atmosphere', 'gig', 'sleek', 'chinatown', 'alternative']</t>
   </si>
   <si>
     <t>['place', 'would', 'much', 'better', 'served', 'run', 'group', 'actually', 'understands', 'customer', 'service']</t>
@@ -1655,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1686,16 +1710,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1706,16 +1730,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1726,16 +1750,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1746,16 +1770,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F5" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1766,16 +1790,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F6" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1786,16 +1810,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1806,16 +1830,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1826,16 +1850,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F9" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1846,16 +1870,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E10" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F10" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1866,16 +1890,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F11" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1886,16 +1910,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E12" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F12" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1906,16 +1930,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E13" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F13" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1926,16 +1950,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E14" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F14" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1946,16 +1970,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E15" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1966,16 +1990,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E16" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F16" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1986,16 +2010,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E17" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F17" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2006,16 +2030,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F18" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2026,16 +2050,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F19" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2046,16 +2070,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E20" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F20" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2066,16 +2090,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F21" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2086,16 +2110,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E22" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F22" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2106,16 +2130,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E23" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F23" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2126,16 +2150,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E24" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F24" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2146,16 +2170,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2166,16 +2190,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F26" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2186,16 +2210,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E27" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F27" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2206,16 +2230,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F28" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2226,16 +2250,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E29" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F29" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2246,16 +2270,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F30" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2266,16 +2290,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E31" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F31" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2286,16 +2310,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="E32" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F32" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2306,16 +2330,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E33" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F33" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2326,16 +2350,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E34" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F34" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2346,16 +2370,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E35" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F35" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2366,16 +2390,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E36" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F36" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2386,16 +2410,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E37" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F37" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2406,16 +2430,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2426,16 +2450,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E39" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F39" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2446,16 +2470,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D40" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2466,16 +2490,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F41" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2486,16 +2510,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="E42" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2506,16 +2530,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E43" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F43" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2526,16 +2550,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="E44" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F44" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2546,16 +2570,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E45" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F45" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2566,16 +2590,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E46" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2586,16 +2610,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E47" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F47" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2606,16 +2630,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E48" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F48" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2626,16 +2650,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="E49" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F49" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2646,16 +2670,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E50" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F50" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2666,16 +2690,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D51" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="E51" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F51" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2686,16 +2710,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E52" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F52" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2706,16 +2730,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="E53" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F53" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2726,16 +2750,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D54" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E54" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F54" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2746,16 +2770,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D55" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F55" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2766,16 +2790,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D56" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F56" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2786,16 +2810,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="E57" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F57" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2806,16 +2830,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="E58" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F58" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2826,16 +2850,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="E59" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F59" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2846,16 +2870,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="E60" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F60" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2866,16 +2890,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E61" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F61" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2886,16 +2910,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F62" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2906,16 +2930,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="E63" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F63" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2926,16 +2950,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="E64" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F64" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2946,16 +2970,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E65" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F65" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2966,16 +2990,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="E66" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F66" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2986,16 +3010,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E67" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F67" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3006,16 +3030,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D68" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="E68" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F68" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3026,16 +3050,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="E69" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F69" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3046,16 +3070,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D70" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E70" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F70" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3066,16 +3090,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="E71" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F71" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3086,16 +3110,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D72" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E72" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F72" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3106,16 +3130,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D73" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E73" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F73" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3126,16 +3150,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D74" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="E74" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F74" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3146,16 +3170,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D75" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E75" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F75" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3166,16 +3190,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="E76" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F76" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3186,16 +3210,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E77" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F77" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3206,16 +3230,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E78" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F78" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3226,16 +3250,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D79" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E79" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F79" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3246,16 +3270,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D80" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E80" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F80" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3266,16 +3290,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="E81" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F81" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3286,16 +3310,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D82" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="E82" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F82" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3306,16 +3330,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D83" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E83" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F83" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3326,16 +3350,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D84" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E84" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3346,16 +3370,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D85" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="E85" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F85" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3366,16 +3390,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="E86" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F86" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3386,16 +3410,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D87" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E87" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F87" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3406,16 +3430,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E88" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F88" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3426,16 +3450,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D89" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E89" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F89" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3446,16 +3470,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D90" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E90" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F90" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3466,16 +3490,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E91" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F91" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3486,16 +3510,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D92" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E92" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F92" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3506,16 +3530,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F93" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3526,16 +3550,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D94" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E94" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F94" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3546,16 +3570,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D95" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="E95" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F95" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3566,16 +3590,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D96" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="E96" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F96" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3586,16 +3610,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D97" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="E97" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F97" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3606,16 +3630,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D98" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E98" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F98" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3626,16 +3650,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D99" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E99" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F99" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3646,16 +3670,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D100" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="E100" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F100" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3666,16 +3690,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D101" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E101" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F101" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3686,16 +3710,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D102" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="E102" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F102" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3706,16 +3730,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D103" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E103" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F103" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3726,16 +3750,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D104" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E104" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F104" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3746,16 +3770,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D105" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E105" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F105" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3766,16 +3790,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D106" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="E106" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F106" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3786,16 +3810,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D107" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="E107" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F107" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3806,16 +3830,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D108" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="E108" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F108" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3826,16 +3850,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D109" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="E109" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F109" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3846,16 +3870,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D110" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="E110" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F110" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3866,16 +3890,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D111" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E111" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F111" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3886,16 +3910,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D112" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="E112" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F112" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3906,16 +3930,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D113" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="E113" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F113" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3926,16 +3950,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D114" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E114" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F114" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3946,16 +3970,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D115" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="E115" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F115" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3966,16 +3990,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D116" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="E116" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F116" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3986,16 +4010,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D117" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E117" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F117" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4006,16 +4030,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D118" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="E118" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F118" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4026,16 +4050,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D119" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="E119" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F119" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4046,16 +4070,56 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D120" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="E120" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F120" t="s">
-        <v>427</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" t="s">
+        <v>245</v>
+      </c>
+      <c r="D121" t="s">
+        <v>273</v>
+      </c>
+      <c r="E121" t="s">
+        <v>314</v>
+      </c>
+      <c r="F121" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>246</v>
+      </c>
+      <c r="D122" t="s">
+        <v>306</v>
+      </c>
+      <c r="E122" t="s">
+        <v>313</v>
+      </c>
+      <c r="F122" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/Results/SERVICE.xlsx
+++ b/Results/SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="430">
   <si>
     <t>id</t>
   </si>
@@ -34,9 +34,6 @@
     <t>1004293:1</t>
   </si>
   <si>
-    <t>1016296:1</t>
-  </si>
-  <si>
     <t>1028246:1</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>1126886:2</t>
   </si>
   <si>
-    <t>1131595:2</t>
-  </si>
-  <si>
     <t>1138996:1</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>1199480:2</t>
   </si>
   <si>
-    <t>1212346:1</t>
-  </si>
-  <si>
     <t>1225162:3</t>
   </si>
   <si>
@@ -196,6 +187,9 @@
     <t>1413697:2</t>
   </si>
   <si>
+    <t>1417496:0</t>
+  </si>
+  <si>
     <t>1417496:3</t>
   </si>
   <si>
@@ -325,9 +319,6 @@
     <t>454704:1</t>
   </si>
   <si>
-    <t>464342:1</t>
-  </si>
-  <si>
     <t>475298:0</t>
   </si>
   <si>
@@ -370,6 +361,12 @@
     <t>527109:0</t>
   </si>
   <si>
+    <t>536919:1</t>
+  </si>
+  <si>
+    <t>558423:5</t>
+  </si>
+  <si>
     <t>744478:1</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>we, there were four of us, arrived at noon - the place was empty - and the staff acted like we were imposing on them and they were very rude.</t>
   </si>
   <si>
-    <t>ive asked a cart attendant for a lotus leaf wrapped rice and she replied back rice and just walked away.</t>
-  </si>
-  <si>
     <t>service was devine, oysters where a sensual as they come, and the price can't be beat!!!</t>
   </si>
   <si>
@@ -445,9 +439,6 @@
     <t>the service is excellent, the decor is great, and the food is delicious and comes in large portions.</t>
   </si>
   <si>
-    <t>the hostess is rude to the point of being offensive.</t>
-  </si>
-  <si>
     <t>we have been to this place many times, and always have great food, wine, and service.</t>
   </si>
   <si>
@@ -478,9 +469,6 @@
     <t>i'd highly recommend it for a special occasion -- it provides and intimate setting and nice service.</t>
   </si>
   <si>
-    <t>took my mom for mother's day, and the maitre d' was pretty rude.</t>
-  </si>
-  <si>
     <t>the staff is incredibly helpful and attentive.</t>
   </si>
   <si>
@@ -559,6 +547,9 @@
     <t>the place is so cool and the service is prompt and curtious.</t>
   </si>
   <si>
+    <t>a restaurant that doesn't try to do anything except serve great food with great service in a pleasant atmosphere.</t>
+  </si>
+  <si>
     <t>the service was impeccable and unobtrusive -- the staff knows what they are there to do -- to know their menu, present your meal, and attend to your needs.</t>
   </si>
   <si>
@@ -688,9 +679,6 @@
     <t>the service is awful.</t>
   </si>
   <si>
-    <t>i asked for an open faced cheese sandwich and the manager basically told me to take my business elsewhere!</t>
-  </si>
-  <si>
     <t>good, fast service.</t>
   </si>
   <si>
@@ -733,6 +721,12 @@
     <t>volare virgins or weekly regulars, everyone gets treated the same and you can't ask for more than that when the service is this friendly.</t>
   </si>
   <si>
+    <t>the only thing the waiters don't do for you is wipe your chin when you leave.</t>
+  </si>
+  <si>
+    <t>quick and friendly service.</t>
+  </si>
+  <si>
     <t>fabulous decor - makes you feel like you're in a trendy manhattan restaurant, very very good food, cheaply-priced, generally friendly staff, and if you're a manhattanite, or spend most of your time in manhattan, rice avenue will make you feel at home.....very soho/village/upper west side minus the expensive prices and pretentious clientele.....all on roosevelt avenue!</t>
   </si>
   <si>
@@ -760,9 +754,6 @@
     <t>like</t>
   </si>
   <si>
-    <t>ive</t>
-  </si>
-  <si>
     <t>sensual</t>
   </si>
   <si>
@@ -796,9 +787,6 @@
     <t>japanese</t>
   </si>
   <si>
-    <t>rude</t>
-  </si>
-  <si>
     <t>trouble</t>
   </si>
   <si>
@@ -817,9 +805,6 @@
     <t>small</t>
   </si>
   <si>
-    <t>pretty</t>
-  </si>
-  <si>
     <t>incredibly</t>
   </si>
   <si>
@@ -922,9 +907,6 @@
     <t>awful</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>pleasant</t>
   </si>
   <si>
@@ -943,6 +925,9 @@
     <t>drawbacks</t>
   </si>
   <si>
+    <t>only</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
@@ -964,9 +949,6 @@
     <t>['four', 'u', 'arrived', 'noon', 'place', 'empty', 'staff', 'acted', 'like', 'imposing', 'rude']</t>
   </si>
   <si>
-    <t>['ive', 'asked', 'cart', 'attendant', 'lotus', 'leaf', 'wrapped', 'rice', 'replied', 'back', 'rice', 'walked', 'away']</t>
-  </si>
-  <si>
     <t>['service', 'devine', 'oyster', 'sensual', 'come', 'price', 'cant', 'beat']</t>
   </si>
   <si>
@@ -1012,9 +994,6 @@
     <t>['service', 'excellent', 'decor', 'great', 'food', 'delicious', 'come', 'large', 'portion']</t>
   </si>
   <si>
-    <t>['hostess', 'rude', 'point', 'offensive']</t>
-  </si>
-  <si>
     <t>['place', 'many', 'time', 'always', 'great', 'food', 'wine', 'service']</t>
   </si>
   <si>
@@ -1045,9 +1024,6 @@
     <t>['id', 'highly', 'recommend', 'special', 'occasion', 'provides', 'intimate', 'setting', 'nice', 'service']</t>
   </si>
   <si>
-    <t>['took', 'mom', 'mother', 'day', 'maitre', 'pretty', 'rude']</t>
-  </si>
-  <si>
     <t>['staff', 'incredibly', 'helpful', 'attentive']</t>
   </si>
   <si>
@@ -1126,6 +1102,9 @@
     <t>['place', 'cool', 'service', 'prompt', 'curtious']</t>
   </si>
   <si>
+    <t>['restaurant', 'try', 'anything', 'except', 'serve', 'great', 'food', 'great', 'service', 'pleasant', 'atmosphere']</t>
+  </si>
+  <si>
     <t>['service', 'impeccable', 'unobtrusive', 'staff', 'know', 'know', 'menu', 'present', 'meal', 'attend', 'need']</t>
   </si>
   <si>
@@ -1255,9 +1234,6 @@
     <t>['service', 'awful']</t>
   </si>
   <si>
-    <t>['asked', 'open', 'faced', 'cheese', 'sandwich', 'manager', 'basically', 'told', 'take', 'business', 'elsewhere']</t>
-  </si>
-  <si>
     <t>['good', 'fast', 'service']</t>
   </si>
   <si>
@@ -1298,6 +1274,12 @@
   </si>
   <si>
     <t>['volare', 'virgin', 'weekly', 'regular', 'everyone', 'get', 'treated', 'cant', 'ask', 'service', 'friendly']</t>
+  </si>
+  <si>
+    <t>['thing', 'waiter', 'wipe', 'chin', 'leave']</t>
+  </si>
+  <si>
+    <t>['quick', 'friendly', 'service']</t>
   </si>
   <si>
     <t>['fabulous', 'decor', 'make', 'feel', 'like', 'trendy', 'manhattan', 'restaurant', 'good', 'food', 'cheaplypriced', 'generally', 'friendly', 'staff', 'manhattanite', 'spend', 'time', 'manhattan', 'rice', 'avenue', 'make', 'feel', 'homevery', 'sohovillageupper', 'west', 'side', 'minus', 'expensive', 'price', 'pretentious', 'clienteleall', 'roosevelt', 'avenue']</t>
@@ -1679,7 +1661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1710,16 +1692,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1730,16 +1712,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1750,16 +1732,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1770,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1790,16 +1772,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" t="s">
         <v>314</v>
-      </c>
-      <c r="F6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1810,16 +1792,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1830,16 +1812,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1850,16 +1832,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1870,16 +1852,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1890,16 +1872,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1910,16 +1892,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1930,16 +1912,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E13" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1950,16 +1932,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1970,16 +1952,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F15" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1990,16 +1972,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F16" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2010,16 +1992,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F17" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2030,16 +2012,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F18" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2050,16 +2032,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F19" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2070,16 +2052,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E20" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F20" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2090,16 +2072,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E21" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F21" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2110,16 +2092,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F22" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2130,16 +2112,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E23" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F23" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2150,16 +2132,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E24" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F24" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2170,16 +2152,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F25" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2190,16 +2172,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E26" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F26" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2210,16 +2192,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F27" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2230,16 +2212,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E28" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F28" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2250,16 +2232,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E29" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F29" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2270,16 +2252,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E30" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F30" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2290,16 +2272,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F31" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2310,16 +2292,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E32" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F32" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2330,16 +2312,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E33" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F33" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2350,16 +2332,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E34" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F34" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2370,16 +2352,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F35" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2390,16 +2372,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E36" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F36" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2410,16 +2392,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F37" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2430,16 +2412,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E38" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F38" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2450,16 +2432,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E39" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F39" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2470,16 +2452,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E40" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F40" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2490,16 +2472,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E41" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F41" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2510,16 +2492,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
         <v>273</v>
       </c>
       <c r="E42" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F42" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2530,16 +2512,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E43" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F43" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2550,16 +2532,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="E44" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F44" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2570,16 +2552,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E45" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F45" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2590,16 +2572,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E46" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F46" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2610,16 +2592,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="E47" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F47" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2630,16 +2612,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D48" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="E48" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F48" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2650,16 +2632,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D49" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F49" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2670,16 +2652,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="E50" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F50" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2690,16 +2672,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E51" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F51" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2710,16 +2692,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D52" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="E52" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F52" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2730,16 +2712,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D53" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="E53" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F53" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2750,16 +2732,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D54" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E54" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F54" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2770,16 +2752,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="E55" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F55" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2790,16 +2772,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E56" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2810,16 +2792,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D57" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E57" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F57" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2830,16 +2812,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E58" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F58" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2850,16 +2832,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E59" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F59" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2870,16 +2852,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F60" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2890,16 +2872,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E61" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F61" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2910,16 +2892,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="E62" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F62" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2930,16 +2912,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E63" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F63" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2950,16 +2932,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="E64" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F64" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2970,16 +2952,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="E65" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F65" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2990,16 +2972,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E66" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F66" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3010,16 +2992,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F67" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3030,16 +3012,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E68" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F68" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3050,16 +3032,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D69" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E69" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F69" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3070,16 +3052,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="E70" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F70" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3090,16 +3072,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D71" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F71" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3110,16 +3092,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D72" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F72" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3130,16 +3112,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D73" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="E73" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F73" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3150,16 +3132,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D74" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F74" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3170,16 +3152,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D75" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="E75" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F75" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3190,16 +3172,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="E76" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F76" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3210,16 +3192,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="E77" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F77" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3230,16 +3212,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D78" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="E78" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F78" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3250,16 +3232,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E79" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F79" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3270,16 +3252,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D80" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="E80" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F80" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3290,16 +3272,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D81" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="E81" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F81" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3310,16 +3292,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D82" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="E82" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F82" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3330,16 +3312,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F83" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3350,16 +3332,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D84" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="E84" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F84" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3370,16 +3352,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D85" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E85" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F85" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3390,16 +3372,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D86" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="E86" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F86" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3410,16 +3392,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D87" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E87" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F87" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3430,16 +3412,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="E88" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F88" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3450,16 +3432,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D89" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E89" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F89" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3470,16 +3452,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D90" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E90" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F90" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3490,16 +3472,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D91" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="E91" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F91" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3510,16 +3492,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D92" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="E92" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F92" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3530,16 +3512,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D93" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="E93" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F93" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3550,16 +3532,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D94" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E94" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F94" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3570,16 +3552,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D95" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="E95" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F95" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3590,16 +3572,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D96" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E96" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F96" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3610,16 +3592,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D97" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="E97" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F97" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3630,16 +3612,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D98" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="E98" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F98" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3650,16 +3632,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D99" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="E99" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F99" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3670,16 +3652,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D100" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E100" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F100" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3690,16 +3672,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D101" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E101" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F101" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3710,16 +3692,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D102" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E102" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F102" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3730,16 +3712,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D103" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E103" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F103" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3750,16 +3732,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D104" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E104" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F104" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3770,16 +3752,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D105" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="E105" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F105" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3790,16 +3772,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D106" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="E106" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F106" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3810,16 +3792,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D107" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="E107" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F107" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3830,16 +3812,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D108" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="E108" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F108" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3850,16 +3832,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D109" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="E109" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F109" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3870,16 +3852,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="E110" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F110" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3890,16 +3872,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D111" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="E111" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F111" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3910,16 +3892,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D112" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E112" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F112" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3930,16 +3912,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D113" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="E113" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F113" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3950,16 +3932,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D114" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E114" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F114" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3970,16 +3952,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D115" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="E115" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F115" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3990,16 +3972,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D116" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E116" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F116" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4010,16 +3992,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D117" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E117" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F117" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4030,16 +4012,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D118" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E118" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F118" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4050,16 +4032,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D119" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="E119" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F119" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4070,16 +4052,16 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D120" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E120" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F120" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4090,36 +4072,16 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D121" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="E121" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F121" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>125</v>
-      </c>
-      <c r="C122" t="s">
-        <v>246</v>
-      </c>
-      <c r="D122" t="s">
-        <v>306</v>
-      </c>
-      <c r="E122" t="s">
-        <v>313</v>
-      </c>
-      <c r="F122" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/Results/SERVICE.xlsx
+++ b/Results/SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="438">
   <si>
     <t>id</t>
   </si>
@@ -751,7 +751,7 @@
     <t>considering you will spend at least $60 a head, i expect better service.</t>
   </si>
   <si>
-    <t>like</t>
+    <t>empty|empty</t>
   </si>
   <si>
     <t>sensual</t>
@@ -760,67 +760,64 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>haze</t>
+    <t>extensive|purple</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>friendly|friendly</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>japanese|japanese</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
     <t>friendly</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>intimidate</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>japanese</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
     <t>patient</t>
   </si>
   <si>
+    <t>prompt|friendly</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>prompt</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>incredibly</t>
-  </si>
-  <si>
-    <t>moved</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>nonsense</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>unappreciative|unappreciative</t>
+  </si>
+  <si>
+    <t>professional</t>
   </si>
   <si>
     <t>delicous</t>
@@ -829,7 +826,7 @@
     <t>wonderful</t>
   </si>
   <si>
-    <t>professional</t>
+    <t>only</t>
   </si>
   <si>
     <t>poor</t>
@@ -841,100 +838,127 @@
     <t>delicious</t>
   </si>
   <si>
+    <t>bad|bad|bad|bad</t>
+  </si>
+  <si>
     <t>impeccable</t>
   </si>
   <si>
     <t>horrible</t>
   </si>
   <si>
-    <t>expect</t>
-  </si>
-  <si>
     <t>proper</t>
   </si>
   <si>
+    <t>nice|nice|nice|nice</t>
+  </si>
+  <si>
+    <t>impeccable|present|unobtrusive</t>
+  </si>
+  <si>
+    <t>impeccable|impeccable</t>
+  </si>
+  <si>
     <t>friendliest</t>
   </si>
   <si>
+    <t>slow|slow</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t>excellent|friendly</t>
+  </si>
+  <si>
+    <t>rude|rude</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>nice|nice</t>
+  </si>
+  <si>
+    <t>boarderline</t>
+  </si>
+  <si>
+    <t>attentive</t>
+  </si>
+  <si>
+    <t>great|great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>little|little|little</t>
+  </si>
+  <si>
+    <t>terrible|several|same|several|same|terrible</t>
+  </si>
+  <si>
+    <t>concerned|good|concerned|good</t>
+  </si>
+  <si>
+    <t>noir|good|good</t>
+  </si>
+  <si>
+    <t>worst|few</t>
+  </si>
+  <si>
+    <t>much|much</t>
+  </si>
+  <si>
+    <t>comfortable|comfortable</t>
+  </si>
+  <si>
     <t>slow</t>
   </si>
   <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>exceptional</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>dissappointed</t>
-  </si>
-  <si>
-    <t>attentive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>concerned</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>promptly</t>
+    <t>excellent|excellent</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>says</t>
+    <t>attentive|attentive</t>
+  </si>
+  <si>
+    <t>counter</t>
   </si>
   <si>
     <t>awful</t>
   </si>
   <si>
-    <t>pleasant</t>
+    <t>best|best</t>
+  </si>
+  <si>
+    <t>pleasant|pleasant</t>
   </si>
   <si>
     <t>friendlier</t>
   </si>
   <si>
-    <t>dim</t>
+    <t>long</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>drawbacks</t>
-  </si>
-  <si>
-    <t>only</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>helpful</t>
+    <t>perfecttheyre</t>
+  </si>
+  <si>
+    <t>clumsy|arrogant|arrogant</t>
+  </si>
+  <si>
+    <t>2nd</t>
   </si>
   <si>
     <t>ok</t>
@@ -1698,10 +1722,10 @@
         <v>245</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1718,10 +1742,10 @@
         <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F3" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1738,10 +1762,10 @@
         <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F4" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1758,10 +1782,10 @@
         <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F5" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1778,10 +1802,10 @@
         <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F6" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1798,10 +1822,10 @@
         <v>250</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1818,10 +1842,10 @@
         <v>251</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F8" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1835,13 +1859,13 @@
         <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1855,13 +1879,13 @@
         <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E10" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F10" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1875,13 +1899,13 @@
         <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F11" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1895,13 +1919,13 @@
         <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E12" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F12" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1918,10 +1942,10 @@
         <v>255</v>
       </c>
       <c r="E13" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F13" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1938,10 +1962,10 @@
         <v>249</v>
       </c>
       <c r="E14" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F14" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1958,10 +1982,10 @@
         <v>256</v>
       </c>
       <c r="E15" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F15" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1978,10 +2002,10 @@
         <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F16" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1998,10 +2022,10 @@
         <v>247</v>
       </c>
       <c r="E17" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F17" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2018,10 +2042,10 @@
         <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F18" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2038,10 +2062,10 @@
         <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F19" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2058,10 +2082,10 @@
         <v>258</v>
       </c>
       <c r="E20" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F20" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2075,13 +2099,13 @@
         <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E21" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F21" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2095,13 +2119,13 @@
         <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F22" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2115,13 +2139,13 @@
         <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E23" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F23" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2135,13 +2159,13 @@
         <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E24" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F24" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2155,13 +2179,13 @@
         <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E25" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F25" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2175,13 +2199,13 @@
         <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E26" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F26" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2198,10 +2222,10 @@
         <v>255</v>
       </c>
       <c r="E27" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F27" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2215,13 +2239,13 @@
         <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E28" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F28" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2234,14 +2258,11 @@
       <c r="C29" t="s">
         <v>152</v>
       </c>
-      <c r="D29" t="s">
-        <v>264</v>
-      </c>
       <c r="E29" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F29" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2255,13 +2276,13 @@
         <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F30" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2278,10 +2299,10 @@
         <v>249</v>
       </c>
       <c r="E31" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F31" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2295,13 +2316,13 @@
         <v>155</v>
       </c>
       <c r="D32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F32" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2315,13 +2336,13 @@
         <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E33" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F33" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2334,14 +2355,11 @@
       <c r="C34" t="s">
         <v>157</v>
       </c>
-      <c r="D34" t="s">
-        <v>267</v>
-      </c>
       <c r="E34" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F34" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2355,13 +2373,13 @@
         <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="E35" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F35" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2375,13 +2393,13 @@
         <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E36" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F36" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2395,13 +2413,13 @@
         <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E37" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F37" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2415,13 +2433,13 @@
         <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E38" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2435,13 +2453,13 @@
         <v>162</v>
       </c>
       <c r="D39" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E39" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2455,13 +2473,13 @@
         <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E40" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F40" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2478,10 +2496,10 @@
         <v>249</v>
       </c>
       <c r="E41" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F41" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2495,13 +2513,13 @@
         <v>165</v>
       </c>
       <c r="D42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E42" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F42" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2515,13 +2533,13 @@
         <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E43" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F43" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2535,13 +2553,13 @@
         <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E44" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F44" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2558,10 +2576,10 @@
         <v>275</v>
       </c>
       <c r="E45" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F45" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2578,10 +2596,10 @@
         <v>276</v>
       </c>
       <c r="E46" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F46" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2598,10 +2616,10 @@
         <v>247</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F47" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2618,10 +2636,10 @@
         <v>247</v>
       </c>
       <c r="E48" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F48" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2634,14 +2652,11 @@
       <c r="C49" t="s">
         <v>172</v>
       </c>
-      <c r="D49" t="s">
-        <v>277</v>
-      </c>
       <c r="E49" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F49" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2655,13 +2670,13 @@
         <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F50" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2675,13 +2690,13 @@
         <v>174</v>
       </c>
       <c r="D51" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F51" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2698,10 +2713,10 @@
         <v>251</v>
       </c>
       <c r="E52" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F52" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2715,13 +2730,13 @@
         <v>176</v>
       </c>
       <c r="D53" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E53" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F53" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2738,10 +2753,10 @@
         <v>249</v>
       </c>
       <c r="E54" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F54" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2755,13 +2770,13 @@
         <v>178</v>
       </c>
       <c r="D55" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F55" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2775,13 +2790,13 @@
         <v>179</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E56" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F56" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2795,13 +2810,13 @@
         <v>180</v>
       </c>
       <c r="D57" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E57" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F57" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2818,10 +2833,10 @@
         <v>247</v>
       </c>
       <c r="E58" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F58" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2835,13 +2850,13 @@
         <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F59" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2855,13 +2870,13 @@
         <v>183</v>
       </c>
       <c r="D60" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E60" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F60" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2875,13 +2890,13 @@
         <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E61" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F61" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2898,10 +2913,10 @@
         <v>255</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F62" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2915,13 +2930,13 @@
         <v>186</v>
       </c>
       <c r="D63" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E63" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F63" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2935,13 +2950,13 @@
         <v>187</v>
       </c>
       <c r="D64" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E64" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F64" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2955,13 +2970,13 @@
         <v>188</v>
       </c>
       <c r="D65" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="E65" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F65" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2978,10 +2993,10 @@
         <v>249</v>
       </c>
       <c r="E66" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F66" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2998,10 +3013,10 @@
         <v>276</v>
       </c>
       <c r="E67" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F67" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3015,13 +3030,13 @@
         <v>191</v>
       </c>
       <c r="D68" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="E68" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F68" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3034,14 +3049,11 @@
       <c r="C69" t="s">
         <v>192</v>
       </c>
-      <c r="D69" t="s">
-        <v>284</v>
-      </c>
       <c r="E69" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F69" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3055,13 +3067,13 @@
         <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="E70" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F70" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3078,10 +3090,10 @@
         <v>255</v>
       </c>
       <c r="E71" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F71" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3095,13 +3107,13 @@
         <v>195</v>
       </c>
       <c r="D72" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F72" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3115,13 +3127,13 @@
         <v>196</v>
       </c>
       <c r="D73" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E73" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F73" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3135,13 +3147,13 @@
         <v>197</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E74" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F74" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3155,13 +3167,13 @@
         <v>198</v>
       </c>
       <c r="D75" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="E75" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F75" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3178,10 +3190,10 @@
         <v>250</v>
       </c>
       <c r="E76" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F76" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3195,13 +3207,13 @@
         <v>200</v>
       </c>
       <c r="D77" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="E77" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F77" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3215,13 +3227,13 @@
         <v>201</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E78" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F78" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3235,13 +3247,13 @@
         <v>202</v>
       </c>
       <c r="D79" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E79" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F79" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3258,10 +3270,10 @@
         <v>255</v>
       </c>
       <c r="E80" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F80" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3275,13 +3287,13 @@
         <v>204</v>
       </c>
       <c r="D81" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="E81" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F81" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3295,13 +3307,13 @@
         <v>205</v>
       </c>
       <c r="D82" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E82" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F82" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3315,13 +3327,13 @@
         <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E83" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F83" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3335,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="D84" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="E84" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F84" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3355,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="D85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E85" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F85" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3375,13 +3387,13 @@
         <v>209</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E86" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F86" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3395,13 +3407,13 @@
         <v>210</v>
       </c>
       <c r="D87" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E87" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F87" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3418,10 +3430,10 @@
         <v>250</v>
       </c>
       <c r="E88" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F88" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3435,13 +3447,13 @@
         <v>212</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="E89" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F89" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3455,13 +3467,13 @@
         <v>213</v>
       </c>
       <c r="D90" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="E90" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F90" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3475,13 +3487,13 @@
         <v>214</v>
       </c>
       <c r="D91" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="E91" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F91" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3495,13 +3507,13 @@
         <v>215</v>
       </c>
       <c r="D92" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="E92" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F92" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3515,13 +3527,13 @@
         <v>216</v>
       </c>
       <c r="D93" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E93" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F93" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3535,13 +3547,13 @@
         <v>217</v>
       </c>
       <c r="D94" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="E94" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F94" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3555,13 +3567,13 @@
         <v>218</v>
       </c>
       <c r="D95" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="E95" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F95" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3574,14 +3586,11 @@
       <c r="C96" t="s">
         <v>219</v>
       </c>
-      <c r="D96" t="s">
-        <v>295</v>
-      </c>
       <c r="E96" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F96" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3595,13 +3604,13 @@
         <v>220</v>
       </c>
       <c r="D97" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E97" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F97" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3618,10 +3627,10 @@
         <v>258</v>
       </c>
       <c r="E98" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F98" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3635,13 +3644,13 @@
         <v>222</v>
       </c>
       <c r="D99" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="E99" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F99" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3655,13 +3664,13 @@
         <v>223</v>
       </c>
       <c r="D100" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E100" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F100" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3675,13 +3684,13 @@
         <v>224</v>
       </c>
       <c r="D101" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="E101" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F101" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3695,13 +3704,13 @@
         <v>225</v>
       </c>
       <c r="D102" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="E102" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F102" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3715,13 +3724,13 @@
         <v>226</v>
       </c>
       <c r="D103" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="E103" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F103" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3735,13 +3744,13 @@
         <v>227</v>
       </c>
       <c r="D104" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="E104" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F104" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3758,10 +3767,10 @@
         <v>258</v>
       </c>
       <c r="E105" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F105" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3775,13 +3784,13 @@
         <v>229</v>
       </c>
       <c r="D106" t="s">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="E106" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F106" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3798,10 +3807,10 @@
         <v>249</v>
       </c>
       <c r="E107" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F107" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3815,13 +3824,13 @@
         <v>231</v>
       </c>
       <c r="D108" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E108" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F108" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3835,13 +3844,13 @@
         <v>232</v>
       </c>
       <c r="D109" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E109" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F109" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3855,13 +3864,13 @@
         <v>233</v>
       </c>
       <c r="D110" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E110" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F110" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3875,13 +3884,13 @@
         <v>234</v>
       </c>
       <c r="D111" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E111" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F111" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3895,13 +3904,13 @@
         <v>235</v>
       </c>
       <c r="D112" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="E112" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F112" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3918,10 +3927,10 @@
         <v>250</v>
       </c>
       <c r="E113" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F113" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3938,10 +3947,10 @@
         <v>250</v>
       </c>
       <c r="E114" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F114" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3955,13 +3964,13 @@
         <v>238</v>
       </c>
       <c r="D115" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="E115" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F115" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3975,13 +3984,13 @@
         <v>239</v>
       </c>
       <c r="D116" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E116" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F116" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3995,13 +4004,13 @@
         <v>240</v>
       </c>
       <c r="D117" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="E117" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F117" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4015,13 +4024,13 @@
         <v>241</v>
       </c>
       <c r="D118" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E118" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F118" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4038,10 +4047,10 @@
         <v>276</v>
       </c>
       <c r="E119" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F119" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4055,13 +4064,13 @@
         <v>243</v>
       </c>
       <c r="D120" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="E120" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F120" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4075,13 +4084,13 @@
         <v>244</v>
       </c>
       <c r="D121" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="E121" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F121" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/Results/SERVICE.xlsx
+++ b/Results/SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="445">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,9 @@
     <t>1004293:1</t>
   </si>
   <si>
+    <t>1016296:1</t>
+  </si>
+  <si>
     <t>1028246:1</t>
   </si>
   <si>
@@ -319,6 +322,9 @@
     <t>454704:1</t>
   </si>
   <si>
+    <t>464342:1</t>
+  </si>
+  <si>
     <t>475298:0</t>
   </si>
   <si>
@@ -394,6 +400,9 @@
     <t>we, there were four of us, arrived at noon - the place was empty - and the staff acted like we were imposing on them and they were very rude.</t>
   </si>
   <si>
+    <t>ive asked a cart attendant for a lotus leaf wrapped rice and she replied back rice and just walked away.</t>
+  </si>
+  <si>
     <t>service was devine, oysters where a sensual as they come, and the price can't be beat!!!</t>
   </si>
   <si>
@@ -679,6 +688,9 @@
     <t>the service is awful.</t>
   </si>
   <si>
+    <t>i asked for an open faced cheese sandwich and the manager basically told me to take my business elsewhere!</t>
+  </si>
+  <si>
     <t>good, fast service.</t>
   </si>
   <si>
@@ -754,6 +766,9 @@
     <t>empty|empty</t>
   </si>
   <si>
+    <t>ive|ive</t>
+  </si>
+  <si>
     <t>sensual</t>
   </si>
   <si>
@@ -853,7 +868,7 @@
     <t>nice|nice|nice|nice</t>
   </si>
   <si>
-    <t>impeccable|present|unobtrusive</t>
+    <t>impeccable|unobtrusive|present</t>
   </si>
   <si>
     <t>impeccable|impeccable</t>
@@ -901,19 +916,19 @@
     <t>little|little|little</t>
   </si>
   <si>
-    <t>terrible|several|same|several|same|terrible</t>
+    <t>terrible|terrible</t>
   </si>
   <si>
     <t>concerned|good|concerned|good</t>
   </si>
   <si>
-    <t>noir|good|good</t>
-  </si>
-  <si>
-    <t>worst|few</t>
-  </si>
-  <si>
-    <t>much|much</t>
+    <t>good|good|noir</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>much|much|much</t>
   </si>
   <si>
     <t>comfortable|comfortable</t>
@@ -922,9 +937,6 @@
     <t>slow</t>
   </si>
   <si>
-    <t>excellent|excellent</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
@@ -937,6 +949,9 @@
     <t>awful</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>best|best</t>
   </si>
   <si>
@@ -973,6 +988,9 @@
     <t>['four', 'u', 'arrived', 'noon', 'place', 'empty', 'staff', 'acted', 'like', 'imposing', 'rude']</t>
   </si>
   <si>
+    <t>['ive', 'asked', 'cart', 'attendant', 'lotus', 'leaf', 'wrapped', 'rice', 'replied', 'back', 'rice', 'walked', 'away']</t>
+  </si>
+  <si>
     <t>['service', 'devine', 'oyster', 'sensual', 'come', 'price', 'cant', 'beat']</t>
   </si>
   <si>
@@ -1256,6 +1274,9 @@
   </si>
   <si>
     <t>['service', 'awful']</t>
+  </si>
+  <si>
+    <t>['asked', 'open', 'faced', 'cheese', 'sandwich', 'manager', 'basically', 'told', 'take', 'business', 'elsewhere']</t>
   </si>
   <si>
     <t>['good', 'fast', 'service']</t>
@@ -1685,7 +1706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1716,16 +1737,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1736,16 +1757,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1756,16 +1777,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1776,16 +1797,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1796,16 +1817,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1816,16 +1837,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1836,16 +1857,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E8" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1856,16 +1877,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1876,16 +1897,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1896,16 +1917,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F11" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1916,16 +1937,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F12" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1936,16 +1957,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F13" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1956,16 +1977,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E14" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F14" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1976,16 +1997,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E15" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F15" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1996,16 +2017,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E16" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F16" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2016,16 +2037,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E17" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F17" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2036,16 +2057,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F18" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2056,16 +2077,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F19" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2076,16 +2097,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E20" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F20" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2096,16 +2117,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E21" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F21" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2116,16 +2137,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F22" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2136,16 +2157,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F23" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2156,16 +2177,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E24" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F24" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2176,16 +2197,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E25" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F25" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2196,16 +2217,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E26" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F26" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2216,16 +2237,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F27" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2236,16 +2257,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E28" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F28" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2256,13 +2277,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="D29" t="s">
+        <v>270</v>
       </c>
       <c r="E29" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F29" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2273,16 +2297,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F30" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2293,16 +2314,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="E31" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F31" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2313,16 +2334,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F32" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2333,16 +2354,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E33" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F33" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2353,13 +2374,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="D34" t="s">
+        <v>272</v>
       </c>
       <c r="E34" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F34" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2370,16 +2394,13 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F35" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2390,16 +2411,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E36" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F36" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2410,16 +2431,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E37" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F37" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2430,16 +2451,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E38" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F38" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2450,16 +2471,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E39" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2470,16 +2491,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F40" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2490,16 +2511,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F41" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2510,16 +2531,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F42" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2530,16 +2551,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E43" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F43" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2550,16 +2571,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D44" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E44" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F44" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2570,16 +2591,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E45" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F45" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2590,16 +2611,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D46" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2610,16 +2631,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="E47" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2630,16 +2651,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E48" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F48" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2650,13 +2671,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="D49" t="s">
+        <v>252</v>
       </c>
       <c r="E49" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F49" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2667,16 +2691,13 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" t="s">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="E50" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F50" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2687,16 +2708,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E51" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F51" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2707,16 +2728,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="E52" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F52" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2727,16 +2748,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E53" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F53" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2747,16 +2768,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="E54" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F54" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2767,16 +2788,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F55" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2787,16 +2808,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="E56" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F56" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2807,16 +2828,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D57" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="E57" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F57" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2827,16 +2848,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="E58" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F58" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2847,16 +2868,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F59" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2867,16 +2888,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E60" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F60" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2887,16 +2908,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E61" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F61" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2907,16 +2928,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="E62" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F62" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2927,16 +2948,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F63" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2947,16 +2968,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E64" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F64" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2967,16 +2988,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E65" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F65" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2987,16 +3008,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="E66" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F66" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3007,16 +3028,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="E67" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F67" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3027,16 +3048,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D68" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E68" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F68" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3047,13 +3068,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="D69" t="s">
+        <v>292</v>
       </c>
       <c r="E69" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F69" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3064,16 +3088,13 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" t="s">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="E70" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F70" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3084,16 +3105,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D71" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="E71" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F71" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3104,16 +3125,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D72" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="E72" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F72" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3124,16 +3145,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D73" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E73" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F73" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3144,16 +3165,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D74" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F74" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3164,16 +3185,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D75" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E75" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F75" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3184,16 +3205,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="E76" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F76" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3204,16 +3225,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D77" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E77" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F77" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3224,16 +3245,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D78" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="E78" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F78" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3244,16 +3265,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D79" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E79" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F79" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3264,16 +3285,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="E80" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F80" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3284,16 +3305,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="E81" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F81" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3304,16 +3325,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E82" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F82" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3324,16 +3345,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D83" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E83" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F83" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3344,16 +3365,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D84" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E84" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F84" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3364,16 +3385,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D85" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E85" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F85" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3384,16 +3405,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D86" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E86" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F86" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3404,16 +3425,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D87" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E87" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F87" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3424,16 +3445,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D88" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="E88" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F88" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3444,16 +3465,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D89" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="E89" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F89" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3464,16 +3485,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D90" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="E90" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F90" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3484,16 +3505,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D91" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="E91" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F91" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3504,16 +3525,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D92" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E92" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F92" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3524,16 +3545,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D93" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="E93" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F93" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3544,16 +3565,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D94" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E94" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F94" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3564,16 +3585,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D95" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E95" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F95" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3584,13 +3605,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="D96" t="s">
+        <v>309</v>
       </c>
       <c r="E96" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F96" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3601,16 +3625,13 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>220</v>
-      </c>
-      <c r="D97" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="E97" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F97" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3621,16 +3642,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D98" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="E98" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F98" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3641,16 +3662,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D99" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E99" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F99" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3661,16 +3682,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D100" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="E100" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F100" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3681,16 +3702,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D101" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E101" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F101" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3701,16 +3722,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D102" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E102" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F102" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3721,16 +3742,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E103" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F103" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3741,16 +3762,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D104" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E104" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F104" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3761,16 +3782,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D105" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="E105" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F105" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3781,16 +3802,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D106" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="E106" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F106" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3801,16 +3822,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D107" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E107" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F107" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3821,16 +3842,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D108" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="E108" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F108" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3841,16 +3862,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D109" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="E109" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F109" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3861,16 +3882,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D110" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="E110" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F110" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3881,16 +3902,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D111" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="E111" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F111" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3901,16 +3922,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D112" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E112" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F112" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3921,16 +3942,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D113" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F113" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3941,16 +3962,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D114" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="E114" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F114" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3961,16 +3982,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D115" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="E115" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F115" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3981,16 +4002,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D116" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="E116" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F116" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4001,16 +4022,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D117" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="E117" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F117" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4021,16 +4042,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D118" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E118" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F118" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4041,16 +4062,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D119" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E119" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F119" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4061,16 +4082,16 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D120" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="E120" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F120" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4081,16 +4102,56 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D121" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="E121" t="s">
+        <v>321</v>
+      </c>
+      <c r="F121" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>247</v>
+      </c>
+      <c r="D122" t="s">
+        <v>259</v>
+      </c>
+      <c r="E122" t="s">
+        <v>322</v>
+      </c>
+      <c r="F122" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" t="s">
+        <v>248</v>
+      </c>
+      <c r="D123" t="s">
         <v>316</v>
       </c>
-      <c r="F121" t="s">
-        <v>437</v>
+      <c r="E123" t="s">
+        <v>321</v>
+      </c>
+      <c r="F123" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
